--- a/Configs/GameConfig/Datas/Role.xlsx
+++ b/Configs/GameConfig/Datas/Role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -28,12 +28,24 @@
     <t>desc</t>
   </si>
   <si>
+    <t>resPath</t>
+  </si>
+  <si>
     <t>cost</t>
   </si>
   <si>
     <t>ai</t>
   </si>
   <si>
+    <t>moveSpeed</t>
+  </si>
+  <si>
+    <t>maxHp</t>
+  </si>
+  <si>
+    <t>basePhysicalAttack</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -43,6 +55,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -61,25 +76,49 @@
     <t>描述</t>
   </si>
   <si>
+    <t>角色预制</t>
+  </si>
+  <si>
     <t>花费</t>
   </si>
   <si>
     <t>aiId</t>
   </si>
   <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>初始最大血量</t>
+  </si>
+  <si>
+    <t>基础物理攻击</t>
+  </si>
+  <si>
     <t>角色1001</t>
   </si>
   <si>
     <t>位于森林深处，与自然妖怪和谐共生，风格清新自然，充满生机</t>
   </si>
   <si>
+    <t>Batty_A</t>
+  </si>
+  <si>
     <t>角色1002</t>
   </si>
   <si>
+    <t>Batty_B</t>
+  </si>
+  <si>
     <t>角色1003</t>
   </si>
   <si>
+    <t>Batty_C</t>
+  </si>
+  <si>
     <t>角色1004</t>
+  </si>
+  <si>
+    <t>Batty_D</t>
   </si>
 </sst>
 </file>
@@ -87,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,37 +148,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,12 +233,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -225,7 +264,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,13 +279,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,55 +293,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,127 +449,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,21 +484,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,17 +498,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,11 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +564,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,145 +592,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,20 +1057,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="5.375" customWidth="1"/>
-    <col min="4" max="4" width="21.875" customWidth="1"/>
-    <col min="5" max="6" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="58.75" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="5.375" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1050,130 +1094,226 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1001</v>
       </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>1002</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6">
         <v>11</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1001</v>
       </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:10">
       <c r="B7">
         <v>1003</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1001</v>
       </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:10">
       <c r="B8">
         <v>1004</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8">
         <v>13</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1001</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/GameConfig/Datas/Role.xlsx
+++ b/Configs/GameConfig/Datas/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -46,6 +46,12 @@
     <t>basePhysicalAttack</t>
   </si>
   <si>
+    <t>attackDistance</t>
+  </si>
+  <si>
+    <t>normalSkillId</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -92,6 +98,12 @@
   </si>
   <si>
     <t>基础物理攻击</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>普攻技能id</t>
   </si>
   <si>
     <t>角色1001</t>
@@ -1057,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1072,10 +1084,11 @@
     <col min="7" max="7" width="5.375" customWidth="1"/>
     <col min="8" max="8" width="11.375" customWidth="1"/>
     <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="10" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1106,112 +1119,136 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:12">
       <c r="B5">
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -1228,19 +1265,25 @@
       <c r="J5">
         <v>50</v>
       </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>100101</v>
+      </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:12">
       <c r="B6">
         <v>1002</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>11</v>
@@ -1257,19 +1300,25 @@
       <c r="J6">
         <v>50</v>
       </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>100101</v>
+      </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:12">
       <c r="B7">
         <v>1003</v>
       </c>
       <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -1286,19 +1335,25 @@
       <c r="J7">
         <v>50</v>
       </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>100101</v>
+      </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:12">
       <c r="B8">
         <v>1004</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>13</v>
@@ -1314,6 +1369,12 @@
       </c>
       <c r="J8">
         <v>50</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>100101</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/GameConfig/Datas/Role.xlsx
+++ b/Configs/GameConfig/Datas/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -37,6 +37,9 @@
     <t>ai</t>
   </si>
   <si>
+    <t>ememyAi</t>
+  </si>
+  <si>
     <t>moveSpeed</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>attackDistance</t>
   </si>
   <si>
+    <t>deathTime</t>
+  </si>
+  <si>
     <t>normalSkillId</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>aiId</t>
   </si>
   <si>
+    <t>作为敌人时ai</t>
+  </si>
+  <si>
     <t>移动速度</t>
   </si>
   <si>
@@ -101,6 +110,9 @@
   </si>
   <si>
     <t>攻击距离</t>
+  </si>
+  <si>
+    <t>死亡时间（ms）</t>
   </si>
   <si>
     <t>普攻技能id</t>
@@ -1069,10 +1081,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1082,13 +1094,14 @@
     <col min="5" max="5" width="8.875" customWidth="1"/>
     <col min="6" max="6" width="5.125" customWidth="1"/>
     <col min="7" max="7" width="5.375" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="13" width="17.5" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1125,130 +1138,154 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:14">
       <c r="B5">
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -1257,33 +1294,39 @@
         <v>1001</v>
       </c>
       <c r="H5">
+        <v>1002</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>100</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>50</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>5</v>
       </c>
-      <c r="L5">
+      <c r="M5">
+        <v>1000</v>
+      </c>
+      <c r="N5">
         <v>100101</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:14">
       <c r="B6">
         <v>1002</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>11</v>
@@ -1292,33 +1335,39 @@
         <v>1001</v>
       </c>
       <c r="H6">
+        <v>1002</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>100</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>50</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="M6">
+        <v>1000</v>
+      </c>
+      <c r="N6">
         <v>100101</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:14">
       <c r="B7">
         <v>1003</v>
       </c>
       <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -1327,33 +1376,39 @@
         <v>1001</v>
       </c>
       <c r="H7">
+        <v>1002</v>
+      </c>
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>100</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>50</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5</v>
       </c>
-      <c r="L7">
+      <c r="M7">
+        <v>1000</v>
+      </c>
+      <c r="N7">
         <v>100101</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>1004</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F8">
         <v>13</v>
@@ -1362,18 +1417,24 @@
         <v>1001</v>
       </c>
       <c r="H8">
+        <v>1002</v>
+      </c>
+      <c r="I8">
         <v>7</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>100</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>50</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5</v>
       </c>
-      <c r="L8">
+      <c r="M8">
+        <v>1000</v>
+      </c>
+      <c r="N8">
         <v>100101</v>
       </c>
     </row>

--- a/Configs/GameConfig/Datas/Role.xlsx
+++ b/Configs/GameConfig/Datas/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>位于森林深处，与自然妖怪和谐共生，风格清新自然，充满生机</t>
-  </si>
-  <si>
-    <t>Batty_A</t>
   </si>
   <si>
     <t>角色1002</t>
@@ -1084,7 +1081,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1284,8 +1281,8 @@
       <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
-        <v>36</v>
+      <c r="E5">
+        <v>1001</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -1320,13 +1317,13 @@
         <v>1002</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>11</v>
@@ -1361,13 +1358,13 @@
         <v>1003</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -1402,13 +1399,13 @@
         <v>1004</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8">
         <v>13</v>

--- a/Configs/GameConfig/Datas/Role.xlsx
+++ b/Configs/GameConfig/Datas/Role.xlsx
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1291,7 +1291,7 @@
         <v>1001</v>
       </c>
       <c r="H5">
-        <v>1002</v>
+        <v>10011</v>
       </c>
       <c r="I5">
         <v>4</v>

--- a/Configs/GameConfig/Datas/Role.xlsx
+++ b/Configs/GameConfig/Datas/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -52,6 +52,9 @@
     <t>attackDistance</t>
   </si>
   <si>
+    <t>attackSpeed</t>
+  </si>
+  <si>
     <t>deathTime</t>
   </si>
   <si>
@@ -110,6 +113,9 @@
   </si>
   <si>
     <t>攻击距离</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
   </si>
   <si>
     <t>死亡时间（ms）</t>
@@ -1078,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1094,11 +1100,11 @@
     <col min="8" max="8" width="12.375" customWidth="1"/>
     <col min="9" max="9" width="11.375" customWidth="1"/>
     <col min="10" max="10" width="12.875" customWidth="1"/>
-    <col min="11" max="13" width="17.5" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="11" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1141,145 +1147,157 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:15">
       <c r="B5">
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>1001</v>
@@ -1306,24 +1324,27 @@
         <v>5</v>
       </c>
       <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>1000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>100101</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:15">
       <c r="B6">
         <v>1002</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6">
         <v>11</v>
@@ -1347,24 +1368,27 @@
         <v>5</v>
       </c>
       <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>1000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>100101</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:15">
       <c r="B7">
         <v>1003</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -1388,24 +1412,27 @@
         <v>5</v>
       </c>
       <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>1000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>100101</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:15">
       <c r="B8">
         <v>1004</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F8">
         <v>13</v>
@@ -1429,9 +1456,12 @@
         <v>5</v>
       </c>
       <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>1000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>100101</v>
       </c>
     </row>
